--- a/scripts/GLUCOSE_configuration.xlsx
+++ b/scripts/GLUCOSE_configuration.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnese/Documents/KTH-Work/GLUCOSE_otoole_20200923/Baseline_new_202009/results_otoole/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnese/Documents/KTH-Work/KTH-dESA:GLUCOSE_GitHub/GLUCOSE/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846B6A9-3084-2143-9134-C69E845C92D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B87876C-E47E-1349-A1D4-22A6E366E428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{11C35186-7494-9D4D-BDF1-6461A1F99797}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{11C35186-7494-9D4D-BDF1-6461A1F99797}"/>
   </bookViews>
   <sheets>
-    <sheet name="Technologies" sheetId="1" r:id="rId1"/>
+    <sheet name="Technologies" sheetId="4" r:id="rId1"/>
     <sheet name="Fuels" sheetId="2" r:id="rId2"/>
     <sheet name="Years" sheetId="3" r:id="rId3"/>
+    <sheet name="Technologies_old" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="198">
   <si>
     <t>ALU</t>
   </si>
@@ -458,12 +459,6 @@
     <t>XSTEMINE</t>
   </si>
   <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
@@ -518,9 +513,6 @@
     <t>land</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
     <t>aluminium</t>
   </si>
   <si>
@@ -624,13 +616,28 @@
   </si>
   <si>
     <t>Module</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>EnergyType</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>EnergyFuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -650,6 +657,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -672,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,6 +702,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1002,1679 +1021,1686 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64845FE0-6DBF-9243-9588-B6AE964DC3F2}">
-  <dimension ref="A1:E100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE92352E-6EA3-6D4D-A01C-D80F345E92DF}">
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C12" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
         <v>193</v>
       </c>
-      <c r="C12" t="s">
-        <v>150</v>
-      </c>
       <c r="D12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
         <v>193</v>
       </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
       <c r="D13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
       <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
         <v>193</v>
       </c>
-      <c r="C14" t="s">
-        <v>150</v>
-      </c>
       <c r="D14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s">
         <v>193</v>
       </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
       <c r="D15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
       <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
         <v>193</v>
       </c>
-      <c r="C16" t="s">
-        <v>150</v>
-      </c>
       <c r="D16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
         <v>193</v>
       </c>
-      <c r="C17" t="s">
-        <v>150</v>
-      </c>
       <c r="D17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="E17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
       <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="s">
         <v>193</v>
       </c>
-      <c r="C18" t="s">
-        <v>150</v>
-      </c>
       <c r="D18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="E18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
         <v>193</v>
       </c>
-      <c r="C19" t="s">
-        <v>191</v>
-      </c>
       <c r="D19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
       <c r="B20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" t="s">
         <v>193</v>
       </c>
-      <c r="C20" t="s">
-        <v>150</v>
-      </c>
       <c r="D20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="E22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
       <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" t="s">
         <v>193</v>
       </c>
-      <c r="C26" t="s">
-        <v>151</v>
-      </c>
       <c r="D26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>66</v>
       </c>
       <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
         <v>193</v>
       </c>
-      <c r="C27" t="s">
-        <v>151</v>
-      </c>
       <c r="D27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="E27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>67</v>
       </c>
       <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" t="s">
         <v>193</v>
       </c>
-      <c r="C28" t="s">
-        <v>165</v>
-      </c>
       <c r="D28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
       <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" t="s">
         <v>193</v>
       </c>
-      <c r="C29" t="s">
-        <v>156</v>
-      </c>
       <c r="D29" t="s">
-        <v>188</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>69</v>
       </c>
       <c r="B30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s">
         <v>193</v>
       </c>
-      <c r="C30" t="s">
-        <v>156</v>
-      </c>
       <c r="D30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
       <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" t="s">
         <v>193</v>
       </c>
-      <c r="C33" t="s">
-        <v>165</v>
-      </c>
       <c r="D33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
       <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
         <v>193</v>
       </c>
-      <c r="C34" t="s">
-        <v>151</v>
-      </c>
       <c r="D34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
       <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
         <v>193</v>
       </c>
-      <c r="C35" t="s">
-        <v>151</v>
-      </c>
       <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="E35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
       <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="s">
         <v>193</v>
       </c>
-      <c r="C36" t="s">
-        <v>151</v>
-      </c>
       <c r="D36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" t="s">
         <v>193</v>
       </c>
-      <c r="C37" t="s">
-        <v>166</v>
-      </c>
       <c r="D37" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
       <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
         <v>193</v>
       </c>
-      <c r="C38" t="s">
-        <v>167</v>
-      </c>
       <c r="D38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
       <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
         <v>193</v>
       </c>
-      <c r="C39" t="s">
-        <v>149</v>
-      </c>
       <c r="D39" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>79</v>
       </c>
       <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
         <v>193</v>
-      </c>
-      <c r="C40" t="s">
-        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
         <v>193</v>
-      </c>
-      <c r="C41" t="s">
-        <v>149</v>
       </c>
       <c r="D41" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
       <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
         <v>193</v>
       </c>
-      <c r="C42" t="s">
-        <v>149</v>
-      </c>
       <c r="D42" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
       <c r="B43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" t="s">
         <v>193</v>
       </c>
-      <c r="C43" t="s">
-        <v>149</v>
-      </c>
       <c r="D43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>83</v>
       </c>
       <c r="B44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" t="s">
         <v>193</v>
       </c>
-      <c r="C44" t="s">
-        <v>190</v>
-      </c>
       <c r="D44" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>84</v>
       </c>
       <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" t="s">
         <v>193</v>
       </c>
-      <c r="C45" t="s">
-        <v>149</v>
-      </c>
       <c r="D45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>85</v>
       </c>
       <c r="B46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" t="s">
         <v>193</v>
       </c>
-      <c r="C46" t="s">
-        <v>149</v>
-      </c>
       <c r="D46" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>86</v>
       </c>
       <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
         <v>193</v>
       </c>
-      <c r="C47" t="s">
-        <v>149</v>
-      </c>
       <c r="D47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E47" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
       <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
         <v>193</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" t="s">
         <v>149</v>
       </c>
-      <c r="D48" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="E49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>91</v>
       </c>
       <c r="B52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" t="s">
         <v>193</v>
       </c>
-      <c r="C52" t="s">
-        <v>151</v>
-      </c>
       <c r="D52" t="s">
-        <v>192</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="E52" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>92</v>
       </c>
       <c r="B53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" t="s">
         <v>193</v>
       </c>
-      <c r="C53" t="s">
-        <v>151</v>
-      </c>
       <c r="D53" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>93</v>
       </c>
       <c r="B54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" t="s">
         <v>193</v>
       </c>
-      <c r="C54" t="s">
-        <v>151</v>
-      </c>
       <c r="D54" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="E55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="E56" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="E57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="E58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="E60" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>113</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" t="s">
-        <v>159</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" t="s">
-        <v>159</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
-      </c>
-      <c r="C79" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" t="s">
-        <v>159</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>119</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C80" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" t="s">
-        <v>177</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>120</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
-      </c>
-      <c r="C81" t="s">
-        <v>177</v>
-      </c>
-      <c r="D81" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>121</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
-      </c>
-      <c r="C82" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C83" t="s">
-        <v>176</v>
-      </c>
-      <c r="D83" t="s">
-        <v>176</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>194</v>
-      </c>
-      <c r="C84" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" t="s">
-        <v>159</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>124</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" t="s">
-        <v>159</v>
-      </c>
-      <c r="D85" t="s">
-        <v>159</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>125</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" t="s">
-        <v>159</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" t="s">
-        <v>159</v>
-      </c>
-      <c r="D87" t="s">
-        <v>159</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>127</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" t="s">
-        <v>159</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
-      </c>
-      <c r="C89" t="s">
-        <v>159</v>
-      </c>
-      <c r="D89" t="s">
-        <v>159</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" t="s">
-        <v>176</v>
-      </c>
-      <c r="D90" t="s">
-        <v>176</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
-      </c>
-      <c r="C91" t="s">
-        <v>162</v>
-      </c>
-      <c r="D91" t="s">
-        <v>183</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>131</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
-      </c>
-      <c r="C92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" t="s">
-        <v>183</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>132</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" t="s">
-        <v>183</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>133</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94" t="s">
-        <v>183</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
-      </c>
-      <c r="C95" t="s">
-        <v>177</v>
-      </c>
-      <c r="D95" t="s">
-        <v>177</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" t="s">
-        <v>161</v>
-      </c>
-      <c r="D96" t="s">
-        <v>192</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
-      </c>
-      <c r="C97" t="s">
-        <v>157</v>
-      </c>
-      <c r="D97" t="s">
-        <v>192</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>183</v>
-      </c>
-      <c r="C98" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98" t="s">
-        <v>192</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
-      </c>
-      <c r="C99" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99" t="s">
-        <v>192</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
-      </c>
-      <c r="C100" t="s">
-        <v>169</v>
-      </c>
-      <c r="D100" t="s">
-        <v>192</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2686,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBDB2AA-BBD1-964A-AE78-B4CF63DCE296}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2698,46 +2724,34 @@
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2745,13 +2759,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2759,13 +2773,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2773,13 +2787,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2787,13 +2801,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2801,13 +2815,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2815,13 +2829,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2829,13 +2843,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2843,13 +2857,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2857,13 +2871,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2871,13 +2885,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2885,13 +2899,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2899,13 +2913,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2913,13 +2927,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
         <v>152</v>
       </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2927,13 +2941,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2941,13 +2955,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
         <v>153</v>
       </c>
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2955,13 +2969,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2969,321 +2983,189 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" t="s">
-        <v>145</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" t="s">
-        <v>164</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" t="s">
-        <v>164</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" t="s">
-        <v>164</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" t="s">
-        <v>164</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" t="s">
-        <v>164</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" t="s">
-        <v>164</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" t="s">
-        <v>164</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" t="s">
-        <v>164</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" t="s">
-        <v>145</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" t="s">
-        <v>155</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" t="s">
-        <v>145</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" t="s">
-        <v>145</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" t="s">
-        <v>145</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" t="s">
-        <v>145</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" t="s">
-        <v>155</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" t="s">
-        <v>164</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" t="s">
-        <v>164</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" t="s">
-        <v>164</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" t="s">
-        <v>164</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" t="s">
-        <v>164</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3509,4 +3391,1685 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64845FE0-6DBF-9243-9588-B6AE964DC3F2}">
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" t="s">
+        <v>157</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" t="s">
+        <v>157</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" t="s">
+        <v>157</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" t="s">
+        <v>159</v>
+      </c>
+      <c r="D91" t="s">
+        <v>180</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" t="s">
+        <v>160</v>
+      </c>
+      <c r="D93" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" t="s">
+        <v>189</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scripts/GLUCOSE_configuration.xlsx
+++ b/scripts/GLUCOSE_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnese/Documents/KTH-Work/KTH-dESA:GLUCOSE_GitHub/GLUCOSE/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B87876C-E47E-1349-A1D4-22A6E366E428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC425A-4F1C-374E-8E59-8704C82344E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{11C35186-7494-9D4D-BDF1-6461A1F99797}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{11C35186-7494-9D4D-BDF1-6461A1F99797}"/>
   </bookViews>
   <sheets>
     <sheet name="Technologies" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="200">
   <si>
     <t>ALU</t>
   </si>
@@ -631,6 +631,12 @@
   </si>
   <si>
     <t>EnergyFuel</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>gas_CCS</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE92352E-6EA3-6D4D-A01C-D80F345E92DF}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1795,7 +1801,7 @@
         <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
         <v>189</v>
@@ -1815,7 +1821,7 @@
         <v>193</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E40" t="s">
         <v>145</v>
@@ -1835,7 +1841,7 @@
         <v>193</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E41" t="s">
         <v>145</v>
@@ -1855,7 +1861,7 @@
         <v>193</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E42" t="s">
         <v>144</v>
@@ -1875,7 +1881,7 @@
         <v>193</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
         <v>182</v>
@@ -1895,7 +1901,7 @@
         <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E44" t="s">
         <v>144</v>
@@ -1915,7 +1921,7 @@
         <v>193</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E45" t="s">
         <v>144</v>
@@ -1935,7 +1941,7 @@
         <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E46" t="s">
         <v>182</v>
@@ -1955,7 +1961,7 @@
         <v>193</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E47" t="s">
         <v>154</v>
@@ -1975,7 +1981,7 @@
         <v>193</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E48" t="s">
         <v>149</v>
@@ -2712,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBDB2AA-BBD1-964A-AE78-B4CF63DCE296}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2871,7 +2877,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
         <v>152</v>

--- a/scripts/GLUCOSE_configuration.xlsx
+++ b/scripts/GLUCOSE_configuration.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnese/Documents/KTH-Work/KTH-dESA:GLUCOSE_GitHub/GLUCOSE/scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnese/Documents/KTH-Work/GitHub_repositories/KTH-dESA/GLUCOSE/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC425A-4F1C-374E-8E59-8704C82344E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94FDFA6-7634-F24A-8A9E-BDE8604FB3D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{11C35186-7494-9D4D-BDF1-6461A1F99797}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11C35186-7494-9D4D-BDF1-6461A1F99797}"/>
   </bookViews>
   <sheets>
-    <sheet name="Technologies" sheetId="4" r:id="rId1"/>
-    <sheet name="Fuels" sheetId="2" r:id="rId2"/>
-    <sheet name="Years" sheetId="3" r:id="rId3"/>
-    <sheet name="Technologies_old" sheetId="1" r:id="rId4"/>
+    <sheet name="Techs_NamesConv" sheetId="5" r:id="rId1"/>
+    <sheet name="Technologies" sheetId="4" r:id="rId2"/>
+    <sheet name="Fuels_NamesConv" sheetId="6" r:id="rId3"/>
+    <sheet name="Fuels" sheetId="2" r:id="rId4"/>
+    <sheet name="Years" sheetId="3" r:id="rId5"/>
+    <sheet name="Technologies_old" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Techs_NamesConv!$A$1:$N$58</definedName>
+  </definedNames>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="424">
   <si>
     <t>ALU</t>
   </si>
@@ -637,6 +642,678 @@
   </si>
   <si>
     <t>gas_CCS</t>
+  </si>
+  <si>
+    <t>ENERGY</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Biofuel</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Heavy Fuel Oil</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Light Fuel Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Resource ID</t>
+  </si>
+  <si>
+    <t>Tech Type ID</t>
+  </si>
+  <si>
+    <t>Role ID</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Age Cat.</t>
+  </si>
+  <si>
+    <t>Size Cat.</t>
+  </si>
+  <si>
+    <t>Import tech</t>
+  </si>
+  <si>
+    <t>Boiler</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Final level</t>
+  </si>
+  <si>
+    <t>Primary level</t>
+  </si>
+  <si>
+    <t>Combined Heat</t>
+  </si>
+  <si>
+    <t>Internal Gasification</t>
+  </si>
+  <si>
+    <t>Steam Cycle</t>
+  </si>
+  <si>
+    <t>Synfuel (synthetic fuel generation based on Gas)</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Conventional</t>
+  </si>
+  <si>
+    <t>FInal level</t>
+  </si>
+  <si>
+    <t>Dam</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Historical capacity</t>
+  </si>
+  <si>
+    <t>New capacity</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Combined Cycle</t>
+  </si>
+  <si>
+    <t>Gas Turbine</t>
+  </si>
+  <si>
+    <t>Carbon-capture</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Coal to Liquids prod.</t>
+  </si>
+  <si>
+    <t>Gas to Liquids prod.</t>
+  </si>
+  <si>
+    <t>Liquid Biofuel prod.</t>
+  </si>
+  <si>
+    <t>Electric Efficiency switch</t>
+  </si>
+  <si>
+    <t>Gas Turbine (single cycle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined </t>
+  </si>
+  <si>
+    <t>Heat and Power</t>
+  </si>
+  <si>
+    <t>Maritime fuel</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Industy</t>
+  </si>
+  <si>
+    <t>Aviation fuel</t>
+  </si>
+  <si>
+    <t>Light Water</t>
+  </si>
+  <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>Concentrated solar thermal</t>
+  </si>
+  <si>
+    <t>Thermal</t>
+  </si>
+  <si>
+    <t>Photovoltaics - Roof top</t>
+  </si>
+  <si>
+    <t>Onshore</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>MATERIALS</t>
+  </si>
+  <si>
+    <t>PLANT</t>
+  </si>
+  <si>
+    <t>PETA</t>
+  </si>
+  <si>
+    <t>PETB</t>
+  </si>
+  <si>
+    <t>MINE</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>Pupl and Paper</t>
+  </si>
+  <si>
+    <t>Petrochemicals</t>
+  </si>
+  <si>
+    <t>Production Plant</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Steel and Iron</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>Technology type</t>
+  </si>
+  <si>
+    <t>Primary resource, Aluminium</t>
+  </si>
+  <si>
+    <t>Primary resource, Cement</t>
+  </si>
+  <si>
+    <t>Primary resource, Phosphorus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary resource, </t>
+  </si>
+  <si>
+    <t>Primary resource, Steel and Iron</t>
+  </si>
+  <si>
+    <t>FACTOR</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>Crops</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Agriculture land</t>
+  </si>
+  <si>
+    <t>Pasture</t>
+  </si>
+  <si>
+    <t>Irrigated</t>
+  </si>
+  <si>
+    <t>Land, total</t>
+  </si>
+  <si>
+    <t>Forest land</t>
+  </si>
+  <si>
+    <t>Other land</t>
+  </si>
+  <si>
+    <t>Livestock, food</t>
+  </si>
+  <si>
+    <t>Crops, food</t>
+  </si>
+  <si>
+    <t>L000RES</t>
+  </si>
+  <si>
+    <t>LF00RES</t>
+  </si>
+  <si>
+    <t>LO00RES</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>LA00RES</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>Forest, land</t>
+  </si>
+  <si>
+    <t>Other, land</t>
+  </si>
+  <si>
+    <t>LACiRES</t>
+  </si>
+  <si>
+    <t>LACiPRD</t>
+  </si>
+  <si>
+    <t>Ci</t>
+  </si>
+  <si>
+    <t>LAPSRES</t>
+  </si>
+  <si>
+    <t>LAPSPRD</t>
+  </si>
+  <si>
+    <t>LFPRRES</t>
+  </si>
+  <si>
+    <t>LFOTRES</t>
+  </si>
+  <si>
+    <t>LFOTPRD</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>LACrRES</t>
+  </si>
+  <si>
+    <t>LACrPRD</t>
+  </si>
+  <si>
+    <t>Crop, rainfed</t>
+  </si>
+  <si>
+    <t>Crop, irrigated</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>HEA</t>
+  </si>
+  <si>
+    <t>MOT</t>
+  </si>
+  <si>
+    <t>BIOW</t>
+  </si>
+  <si>
+    <t>BIOW2</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>HCO</t>
+  </si>
+  <si>
+    <t>HFO</t>
+  </si>
+  <si>
+    <t>LFO</t>
+  </si>
+  <si>
+    <t>NUC</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>BIOL</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>HEAT</t>
+  </si>
+  <si>
+    <t>Resource level</t>
+  </si>
+  <si>
+    <t>Sector ID</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Motion and Aviation</t>
+  </si>
+  <si>
+    <t>Roadway</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Biomass for energy</t>
+  </si>
+  <si>
+    <t>Biomass for Industry</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Pulp and Paper</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>LAND AND FOOD</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>AGR</t>
+  </si>
+  <si>
+    <t>VFOOi</t>
+  </si>
+  <si>
+    <t>FRST</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Resouce ID</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Land level</t>
+  </si>
+  <si>
+    <t>Livestock prod.</t>
+  </si>
+  <si>
+    <t>Crops prod.</t>
+  </si>
+  <si>
+    <t>Irrigated Cops prod.</t>
+  </si>
+  <si>
+    <t>Biomass prod.</t>
+  </si>
+  <si>
+    <t>Full name</t>
   </si>
 </sst>
 </file>
@@ -673,12 +1350,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -693,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,6 +1396,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,11 +1734,2991 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F8064A-38A3-204E-961F-DB16C98FA406}">
+  <dimension ref="A1:Q91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="9"/>
+    <col min="12" max="12" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" t="s">
+        <v>279</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" t="s">
+        <v>286</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J13" t="s">
+        <v>278</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="I16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" t="s">
+        <v>279</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="I17" t="s">
+        <v>239</v>
+      </c>
+      <c r="J17" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="M17" t="s">
+        <v>271</v>
+      </c>
+      <c r="N17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I19" t="s">
+        <v>237</v>
+      </c>
+      <c r="J19" t="s">
+        <v>278</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I20" t="s">
+        <v>237</v>
+      </c>
+      <c r="J20" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J21" t="s">
+        <v>278</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I22" t="s">
+        <v>239</v>
+      </c>
+      <c r="J22" t="s">
+        <v>279</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" t="s">
+        <v>237</v>
+      </c>
+      <c r="J23" t="s">
+        <v>278</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>279</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="M25" t="s">
+        <v>268</v>
+      </c>
+      <c r="N25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>278</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" t="s">
+        <v>317</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="M27" t="s">
+        <v>243</v>
+      </c>
+      <c r="N27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>317</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="M28" t="s">
+        <v>272</v>
+      </c>
+      <c r="N28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I29" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I32" t="s">
+        <v>237</v>
+      </c>
+      <c r="J32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I34" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I35" t="s">
+        <v>237</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I36" t="s">
+        <v>237</v>
+      </c>
+      <c r="J36" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I37" t="s">
+        <v>243</v>
+      </c>
+      <c r="J37" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I38" t="s">
+        <v>237</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I39" t="s">
+        <v>237</v>
+      </c>
+      <c r="J39" t="s">
+        <v>278</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I40" t="s">
+        <v>239</v>
+      </c>
+      <c r="J40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J41" t="s">
+        <v>279</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I42" t="s">
+        <v>239</v>
+      </c>
+      <c r="J42" t="s">
+        <v>279</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" t="s">
+        <v>271</v>
+      </c>
+      <c r="N42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="I43" t="s">
+        <v>239</v>
+      </c>
+      <c r="J43" t="s">
+        <v>279</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="I44" t="s">
+        <v>239</v>
+      </c>
+      <c r="J44" t="s">
+        <v>279</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I45" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" t="s">
+        <v>278</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" t="s">
+        <v>243</v>
+      </c>
+      <c r="J47" t="s">
+        <v>275</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="15"/>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I48" t="s">
+        <v>239</v>
+      </c>
+      <c r="J48" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I49" t="s">
+        <v>239</v>
+      </c>
+      <c r="J49" t="s">
+        <v>279</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" t="s">
+        <v>214</v>
+      </c>
+      <c r="F50" t="s">
+        <v>232</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I50" t="s">
+        <v>243</v>
+      </c>
+      <c r="J50" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" t="s">
+        <v>232</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I51" t="s">
+        <v>237</v>
+      </c>
+      <c r="J51" t="s">
+        <v>278</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="I52" t="s">
+        <v>239</v>
+      </c>
+      <c r="J52" t="s">
+        <v>279</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" t="s">
+        <v>233</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="I53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J53" t="s">
+        <v>279</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I54" t="s">
+        <v>237</v>
+      </c>
+      <c r="J54" t="s">
+        <v>278</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I55" t="s">
+        <v>239</v>
+      </c>
+      <c r="J55" t="s">
+        <v>279</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" t="s">
+        <v>233</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I56" t="s">
+        <v>239</v>
+      </c>
+      <c r="J56" t="s">
+        <v>279</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" t="s">
+        <v>234</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="I57" t="s">
+        <v>239</v>
+      </c>
+      <c r="J57" t="s">
+        <v>279</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" t="s">
+        <v>234</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="I58" t="s">
+        <v>239</v>
+      </c>
+      <c r="J58" t="s">
+        <v>279</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" t="s">
+        <v>319</v>
+      </c>
+      <c r="F61" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="15"/>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>324</v>
+      </c>
+      <c r="E62" t="s">
+        <v>319</v>
+      </c>
+      <c r="F62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>325</v>
+      </c>
+      <c r="E63" t="s">
+        <v>319</v>
+      </c>
+      <c r="F63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="15"/>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" t="s">
+        <v>326</v>
+      </c>
+      <c r="E64" t="s">
+        <v>319</v>
+      </c>
+      <c r="F64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="15"/>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>320</v>
+      </c>
+      <c r="D65" t="s">
+        <v>329</v>
+      </c>
+      <c r="E65" t="s">
+        <v>319</v>
+      </c>
+      <c r="F65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="15"/>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>321</v>
+      </c>
+      <c r="D66" t="s">
+        <v>327</v>
+      </c>
+      <c r="E66" t="s">
+        <v>319</v>
+      </c>
+      <c r="F66" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="15"/>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>330</v>
+      </c>
+      <c r="E67" t="s">
+        <v>319</v>
+      </c>
+      <c r="F67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="15"/>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" t="s">
+        <v>322</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="15"/>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" t="s">
+        <v>334</v>
+      </c>
+      <c r="E69" t="s">
+        <v>322</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="15"/>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s">
+        <v>335</v>
+      </c>
+      <c r="E70" t="s">
+        <v>322</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="15"/>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" t="s">
+        <v>336</v>
+      </c>
+      <c r="E71" t="s">
+        <v>322</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="15"/>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
+        <v>337</v>
+      </c>
+      <c r="E72" t="s">
+        <v>322</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="17"/>
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" t="s">
+        <v>344</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>341</v>
+      </c>
+      <c r="K76" t="s">
+        <v>356</v>
+      </c>
+      <c r="L76" t="s">
+        <v>116</v>
+      </c>
+      <c r="M76" t="s">
+        <v>344</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="P76" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="17"/>
+      <c r="B77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" t="s">
+        <v>344</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>341</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K77" t="s">
+        <v>373</v>
+      </c>
+      <c r="L77" t="s">
+        <v>116</v>
+      </c>
+      <c r="M77" t="s">
+        <v>344</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="O77" t="s">
+        <v>375</v>
+      </c>
+      <c r="P77" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="17"/>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" t="s">
+        <v>344</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>341</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="I78" t="s">
+        <v>340</v>
+      </c>
+      <c r="J78" t="s">
+        <v>331</v>
+      </c>
+      <c r="K78" t="s">
+        <v>361</v>
+      </c>
+      <c r="L78" t="s">
+        <v>116</v>
+      </c>
+      <c r="M78" t="s">
+        <v>344</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="O78" t="s">
+        <v>376</v>
+      </c>
+      <c r="P78" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="17"/>
+      <c r="B79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" t="s">
+        <v>344</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>341</v>
+      </c>
+      <c r="I79" t="s">
+        <v>340</v>
+      </c>
+      <c r="J79" t="s">
+        <v>331</v>
+      </c>
+      <c r="K79" t="s">
+        <v>374</v>
+      </c>
+      <c r="L79" t="s">
+        <v>116</v>
+      </c>
+      <c r="M79" t="s">
+        <v>344</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="O79" t="s">
+        <v>375</v>
+      </c>
+      <c r="P79" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="17"/>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" t="s">
+        <v>344</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>345</v>
+      </c>
+      <c r="K80" t="s">
+        <v>362</v>
+      </c>
+      <c r="L80" t="s">
+        <v>116</v>
+      </c>
+      <c r="M80" t="s">
+        <v>344</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="O80" t="s">
+        <v>376</v>
+      </c>
+      <c r="P80" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" s="17"/>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" t="s">
+        <v>344</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>345</v>
+      </c>
+      <c r="I81" t="s">
+        <v>340</v>
+      </c>
+      <c r="J81" t="s">
+        <v>331</v>
+      </c>
+      <c r="K81" t="s">
+        <v>364</v>
+      </c>
+      <c r="L81" t="s">
+        <v>116</v>
+      </c>
+      <c r="M81" t="s">
+        <v>344</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="O81" t="s">
+        <v>345</v>
+      </c>
+      <c r="P81" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="17"/>
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82" t="s">
+        <v>347</v>
+      </c>
+      <c r="K82" t="s">
+        <v>365</v>
+      </c>
+      <c r="L82" t="s">
+        <v>116</v>
+      </c>
+      <c r="M82" t="s">
+        <v>344</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="O82" t="s">
+        <v>345</v>
+      </c>
+      <c r="P82" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="17"/>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" t="s">
+        <v>348</v>
+      </c>
+      <c r="K83" t="s">
+        <v>352</v>
+      </c>
+      <c r="L83" t="s">
+        <v>355</v>
+      </c>
+      <c r="M83" t="s">
+        <v>347</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="P83" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="17"/>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" t="s">
+        <v>348</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>264</v>
+      </c>
+      <c r="K84" t="s">
+        <v>353</v>
+      </c>
+      <c r="L84" t="s">
+        <v>124</v>
+      </c>
+      <c r="M84" t="s">
+        <v>359</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="P84" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="17"/>
+      <c r="B85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" t="s">
+        <v>348</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>343</v>
+      </c>
+      <c r="K85" t="s">
+        <v>366</v>
+      </c>
+      <c r="L85" t="s">
+        <v>124</v>
+      </c>
+      <c r="M85" t="s">
+        <v>359</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="O85" t="s">
+        <v>264</v>
+      </c>
+      <c r="P85" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="17"/>
+      <c r="B86" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" t="s">
+        <v>348</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>343</v>
+      </c>
+      <c r="I86" t="s">
+        <v>340</v>
+      </c>
+      <c r="J86" t="s">
+        <v>331</v>
+      </c>
+      <c r="K86" t="s">
+        <v>367</v>
+      </c>
+      <c r="L86" t="s">
+        <v>124</v>
+      </c>
+      <c r="M86" t="s">
+        <v>359</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="O86" t="s">
+        <v>343</v>
+      </c>
+      <c r="P86" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="17"/>
+      <c r="B87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" t="s">
+        <v>349</v>
+      </c>
+      <c r="K87" t="s">
+        <v>368</v>
+      </c>
+      <c r="L87" t="s">
+        <v>124</v>
+      </c>
+      <c r="M87" t="s">
+        <v>359</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="O87" t="s">
+        <v>343</v>
+      </c>
+      <c r="P87" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K88" t="s">
+        <v>354</v>
+      </c>
+      <c r="L88" t="s">
+        <v>128</v>
+      </c>
+      <c r="M88" t="s">
+        <v>360</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="P88" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="B90" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
+        <v>350</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="16"/>
+      <c r="B91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>351</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N58" xr:uid="{6B2FEA23-616D-B947-B925-B513D49E3F64}"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A58"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="A75:A87"/>
+    <mergeCell ref="A90:A91"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE92352E-6EA3-6D4D-A01C-D80F345E92DF}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:D48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A76" activeCellId="2" sqref="A77:A90 A95 A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2714,12 +6401,930 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4800B10-C144-324B-AB72-3BE199CF63FA}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" t="s">
+        <v>383</v>
+      </c>
+      <c r="H10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" t="s">
+        <v>384</v>
+      </c>
+      <c r="H11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" t="s">
+        <v>385</v>
+      </c>
+      <c r="H12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" t="s">
+        <v>386</v>
+      </c>
+      <c r="H13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" t="s">
+        <v>387</v>
+      </c>
+      <c r="H14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" t="s">
+        <v>272</v>
+      </c>
+      <c r="F15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" t="s">
+        <v>389</v>
+      </c>
+      <c r="H16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" t="s">
+        <v>394</v>
+      </c>
+      <c r="G17" t="s">
+        <v>390</v>
+      </c>
+      <c r="H17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" t="s">
+        <v>394</v>
+      </c>
+      <c r="G18" t="s">
+        <v>391</v>
+      </c>
+      <c r="H18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>405</v>
+      </c>
+      <c r="D30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>405</v>
+      </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" t="s">
+        <v>404</v>
+      </c>
+      <c r="F31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>405</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" t="s">
+        <v>403</v>
+      </c>
+      <c r="F32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>405</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" t="s">
+        <v>414</v>
+      </c>
+      <c r="E37" t="s">
+        <v>410</v>
+      </c>
+      <c r="F37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D38" t="s">
+        <v>414</v>
+      </c>
+      <c r="E38" t="s">
+        <v>410</v>
+      </c>
+      <c r="F38" t="s">
+        <v>416</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" t="s">
+        <v>414</v>
+      </c>
+      <c r="E39" t="s">
+        <v>410</v>
+      </c>
+      <c r="F39" t="s">
+        <v>416</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>409</v>
+      </c>
+      <c r="D40" t="s">
+        <v>414</v>
+      </c>
+      <c r="E40" t="s">
+        <v>410</v>
+      </c>
+      <c r="F40" t="s">
+        <v>416</v>
+      </c>
+      <c r="G40" t="s">
+        <v>411</v>
+      </c>
+      <c r="H40" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>409</v>
+      </c>
+      <c r="D41" t="s">
+        <v>414</v>
+      </c>
+      <c r="E41" t="s">
+        <v>412</v>
+      </c>
+      <c r="F41" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>409</v>
+      </c>
+      <c r="D42" t="s">
+        <v>414</v>
+      </c>
+      <c r="E42" t="s">
+        <v>412</v>
+      </c>
+      <c r="F42" t="s">
+        <v>417</v>
+      </c>
+      <c r="G42" t="s">
+        <v>381</v>
+      </c>
+      <c r="H42" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D43" t="s">
+        <v>414</v>
+      </c>
+      <c r="E43" t="s">
+        <v>413</v>
+      </c>
+      <c r="F43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="19"/>
+      <c r="B46" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" t="s">
+        <v>264</v>
+      </c>
+      <c r="G48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A47:A50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBDB2AA-BBD1-964A-AE78-B4CF63DCE296}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A36" activeCellId="2" sqref="A23:A32 A37 A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3179,11 +7784,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C981FFF-BFB0-3A40-8105-11CE86A3A201}">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A61" sqref="A42:A61"/>
     </sheetView>
   </sheetViews>
@@ -3399,7 +8004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64845FE0-6DBF-9243-9588-B6AE964DC3F2}">
   <dimension ref="A1:E100"/>
   <sheetViews>

--- a/scripts/GLUCOSE_configuration.xlsx
+++ b/scripts/GLUCOSE_configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnese/Documents/KTH-Work/GitHub_repositories/KTH-dESA/GLUCOSE/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94FDFA6-7634-F24A-8A9E-BDE8604FB3D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCD71B-84B8-224F-8914-A0ADAAC9AFE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11C35186-7494-9D4D-BDF1-6461A1F99797}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="434">
   <si>
     <t>ALU</t>
   </si>
@@ -1314,6 +1314,36 @@
   </si>
   <si>
     <t>Full name</t>
+  </si>
+  <si>
+    <t>Resource Level</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>MFOO_P_LAPS</t>
+  </si>
+  <si>
+    <t>VFOO_P_LAC</t>
+  </si>
+  <si>
+    <t>LAPS</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>Pasture land</t>
+  </si>
+  <si>
+    <t>Cropland</t>
+  </si>
+  <si>
+    <t>Agriculture land, Pasture</t>
+  </si>
+  <si>
+    <t>Agriculture land, Crops</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F8064A-38A3-204E-961F-DB16C98FA406}">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView topLeftCell="E61" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6403,10 +6433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4800B10-C144-324B-AB72-3BE199CF63FA}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6416,6 +6446,8 @@
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7035,7 +7067,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" t="s">
         <v>40</v>
@@ -7053,7 +7085,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>423</v>
       </c>
@@ -7067,7 +7099,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>408</v>
       </c>
@@ -7087,7 +7119,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" t="s">
         <v>22</v>
@@ -7111,7 +7143,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" t="s">
         <v>23</v>
@@ -7135,7 +7167,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>24</v>
@@ -7159,7 +7191,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" t="s">
         <v>25</v>
@@ -7177,7 +7209,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" t="s">
         <v>26</v>
@@ -7201,7 +7233,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" t="s">
         <v>27</v>
@@ -7219,7 +7251,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" t="s">
         <v>28</v>
@@ -7231,16 +7263,34 @@
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="6" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C46" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>408</v>
       </c>
@@ -7253,8 +7303,17 @@
       <c r="D47" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" t="s">
         <v>30</v>
@@ -7274,8 +7333,32 @@
       <c r="G48" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>430</v>
+      </c>
+      <c r="J48" t="s">
+        <v>426</v>
+      </c>
+      <c r="K48" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" t="s">
+        <v>350</v>
+      </c>
+      <c r="M48" t="s">
+        <v>239</v>
+      </c>
+      <c r="N48" t="s">
+        <v>264</v>
+      </c>
+      <c r="O48" t="s">
+        <v>428</v>
+      </c>
+      <c r="P48" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" t="s">
         <v>34</v>
@@ -7286,8 +7369,17 @@
       <c r="D49" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" t="s">
         <v>35</v>
@@ -7306,6 +7398,30 @@
       </c>
       <c r="G50" t="s">
         <v>117</v>
+      </c>
+      <c r="H50" t="s">
+        <v>431</v>
+      </c>
+      <c r="J50" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" t="s">
+        <v>351</v>
+      </c>
+      <c r="M50" t="s">
+        <v>239</v>
+      </c>
+      <c r="N50" t="s">
+        <v>264</v>
+      </c>
+      <c r="O50" t="s">
+        <v>429</v>
+      </c>
+      <c r="P50" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/GLUCOSE_configuration.xlsx
+++ b/scripts/GLUCOSE_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnese/Documents/KTH-Work/GitHub_repositories/KTH-dESA/GLUCOSE/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCD71B-84B8-224F-8914-A0ADAAC9AFE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCAEB52-A3A2-3244-8791-4F3075153B5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11C35186-7494-9D4D-BDF1-6461A1F99797}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{11C35186-7494-9D4D-BDF1-6461A1F99797}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs_NamesConv" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="448">
   <si>
     <t>ALU</t>
   </si>
@@ -1344,13 +1344,55 @@
   </si>
   <si>
     <t>Agriculture land, Crops</t>
+  </si>
+  <si>
+    <t>F_ALU</t>
+  </si>
+  <si>
+    <t>F_AMM</t>
+  </si>
+  <si>
+    <t>F_CEM</t>
+  </si>
+  <si>
+    <t>F_FERT</t>
+  </si>
+  <si>
+    <t>F_PAP</t>
+  </si>
+  <si>
+    <t>F_PET</t>
+  </si>
+  <si>
+    <t>F_STE</t>
+  </si>
+  <si>
+    <t>X_ALU</t>
+  </si>
+  <si>
+    <t>X_CEM</t>
+  </si>
+  <si>
+    <t>X_PHO</t>
+  </si>
+  <si>
+    <t>X_POT</t>
+  </si>
+  <si>
+    <t>X_STE</t>
+  </si>
+  <si>
+    <t>Resource Type</t>
+  </si>
+  <si>
+    <t>Technology ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1375,6 +1417,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1406,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1451,6 +1508,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1767,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F8064A-38A3-204E-961F-DB16C98FA406}">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView topLeftCell="E61" workbookViewId="0">
-      <selection activeCell="N82" sqref="N82"/>
+    <sheetView tabSelected="1" topLeftCell="C69" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4190,6 +4251,17 @@
       <c r="D75" t="s">
         <v>344</v>
       </c>
+      <c r="L75" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
@@ -4208,22 +4280,23 @@
       <c r="F76" t="s">
         <v>341</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N76" s="9" t="s">
+      <c r="N76" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="P76" t="s">
+      <c r="O76" s="20"/>
+      <c r="P76" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="Q76" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4250,25 +4323,25 @@
       <c r="H77" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N77" s="9" t="s">
+      <c r="N77" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="O77" t="s">
+      <c r="O77" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="Q77" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4298,25 +4371,25 @@
       <c r="J78" t="s">
         <v>331</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="N78" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O78" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P78" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="Q78" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4343,25 +4416,25 @@
       <c r="J79" t="s">
         <v>331</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N79" s="9" t="s">
+      <c r="N79" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O79" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="P79" t="s">
+      <c r="P79" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="Q79" s="20" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4382,25 +4455,25 @@
       <c r="F80" t="s">
         <v>345</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N80" s="9" t="s">
+      <c r="N80" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O80" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="P80" t="s">
+      <c r="P80" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="Q80" s="20" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4427,25 +4500,25 @@
       <c r="J81" t="s">
         <v>331</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N81" s="9" t="s">
+      <c r="N81" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O81" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="Q81" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4460,25 +4533,25 @@
       <c r="D82" t="s">
         <v>347</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N82" s="9" t="s">
+      <c r="N82" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O82" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P82" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="Q82" s="20" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4493,22 +4566,23 @@
       <c r="D83" t="s">
         <v>348</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="N83" s="9" t="s">
+      <c r="N83" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="P83" t="s">
+      <c r="O83" s="20"/>
+      <c r="P83" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="Q83" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4529,22 +4603,23 @@
       <c r="F84" t="s">
         <v>264</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="N84" s="9" t="s">
+      <c r="N84" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="P84" t="s">
+      <c r="O84" s="20"/>
+      <c r="P84" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="Q84" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4565,25 +4640,25 @@
       <c r="F85" t="s">
         <v>343</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="N85" s="9" t="s">
+      <c r="N85" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="O85" t="s">
+      <c r="O85" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="Q85" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4610,25 +4685,25 @@
       <c r="J86" t="s">
         <v>331</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="N86" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="O86" t="s">
+      <c r="O86" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="P86" t="s">
+      <c r="P86" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="Q86" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4643,45 +4718,46 @@
       <c r="D87" t="s">
         <v>349</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L87" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="N87" s="9" t="s">
+      <c r="N87" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O87" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P87" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="Q87" s="20" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K88" t="s">
+      <c r="K88" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L88" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="N88" s="9" t="s">
+      <c r="N88" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="P88" t="s">
+      <c r="O88" s="20"/>
+      <c r="P88" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="Q88" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6433,10 +6509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4800B10-C144-324B-AB72-3BE199CF63FA}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A13" zoomScale="89" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6844,7 +6920,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" t="s">
         <v>17</v>
@@ -6868,7 +6944,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" t="s">
         <v>18</v>
@@ -6892,13 +6968,13 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>423</v>
       </c>
@@ -6908,8 +6984,17 @@
       <c r="E21" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21" s="20"/>
+      <c r="K21" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="N21" s="20"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>318</v>
       </c>
@@ -6922,8 +7007,23 @@
       <c r="F22" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" t="s">
         <v>1</v>
@@ -6934,8 +7034,23 @@
       <c r="F23" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" t="s">
         <v>19</v>
@@ -6946,8 +7061,23 @@
       <c r="F24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" t="s">
         <v>20</v>
@@ -6958,8 +7088,23 @@
       <c r="F25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" t="s">
         <v>31</v>
@@ -6970,8 +7115,23 @@
       <c r="F26" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J26" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" t="s">
         <v>32</v>
@@ -6982,8 +7142,23 @@
       <c r="F27" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J27" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" t="s">
         <v>33</v>
@@ -6994,8 +7169,23 @@
       <c r="F28" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J28" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" t="s">
         <v>36</v>
@@ -7012,8 +7202,23 @@
       <c r="F29" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J29" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" t="s">
         <v>37</v>
@@ -7030,8 +7235,23 @@
       <c r="F30" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J30" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" t="s">
         <v>38</v>
@@ -7048,8 +7268,23 @@
       <c r="F31" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J31" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" t="s">
         <v>39</v>
@@ -7066,8 +7301,23 @@
       <c r="F32" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J32" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" t="s">
         <v>40</v>
@@ -7084,8 +7334,23 @@
       <c r="F33" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J33" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>423</v>
       </c>
@@ -7099,7 +7364,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>408</v>
       </c>
@@ -7119,7 +7384,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" t="s">
         <v>22</v>
@@ -7143,7 +7408,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" t="s">
         <v>23</v>
@@ -7167,7 +7432,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>24</v>
@@ -7191,7 +7456,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" t="s">
         <v>25</v>
@@ -7209,7 +7474,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" t="s">
         <v>26</v>
@@ -7233,7 +7498,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" t="s">
         <v>27</v>
@@ -7251,7 +7516,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" t="s">
         <v>28</v>
@@ -7263,10 +7528,10 @@
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="6" t="s">
         <v>423</v>
@@ -7280,17 +7545,22 @@
       <c r="G46" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="J46" s="20"/>
+      <c r="K46" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M46" s="6" t="s">
+      <c r="L46" s="20"/>
+      <c r="M46" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="N46" s="20"/>
+      <c r="O46" s="21" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>408</v>
       </c>
@@ -7303,17 +7573,22 @@
       <c r="D47" t="s">
         <v>350</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="20" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" t="s">
         <v>30</v>
@@ -7336,29 +7611,30 @@
       <c r="H48" t="s">
         <v>430</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="20" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="20"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" t="s">
         <v>34</v>
@@ -7369,17 +7645,22 @@
       <c r="D49" t="s">
         <v>351</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="20" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" t="s">
         <v>35</v>
@@ -7402,27 +7683,28 @@
       <c r="H50" t="s">
         <v>431</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="20" t="s">
         <v>433</v>
       </c>
+      <c r="Q50" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
